--- a/data/总结 - 20220709.xlsx
+++ b/data/总结 - 20220709.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C8200-0947-4983-99AE-DDA57C81CC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BDA4FF-C751-4314-AA5F-C98518EC0FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="4590" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{E5483962-68E5-4AD9-AF09-64285FDD6BB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5483962-68E5-4AD9-AF09-64285FDD6BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="aas" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="321">
   <si>
     <t>突变</t>
   </si>
@@ -456,9 +456,6 @@
     <t>WHO label</t>
   </si>
   <si>
-    <t>Lineage + additional mutations</t>
-  </si>
-  <si>
     <t>Country first detected (community)</t>
   </si>
   <si>
@@ -474,15 +471,9 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>N501Y, D614G, P681H</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>E484K, N501Y, D614G, P681H</t>
-  </si>
-  <si>
     <t>Beta</t>
   </si>
   <si>
@@ -492,9 +483,6 @@
     <t>South Africa</t>
   </si>
   <si>
-    <t>K417N, E484K, N501Y, D614G, A701V</t>
-  </si>
-  <si>
     <t>Gamma</t>
   </si>
   <si>
@@ -504,9 +492,6 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>K417T, E484K, N501Y, D614G, H655Y</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -516,9 +501,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>L452R, T478K, D614G, P681R</t>
-  </si>
-  <si>
     <t>Variants of Concern (VOC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,9 +514,6 @@
     <t>Nigeria</t>
   </si>
   <si>
-    <t>E484K, D614G, Q677H</t>
-  </si>
-  <si>
     <t>Theta</t>
   </si>
   <si>
@@ -550,18 +529,12 @@
     <t>B.1.617.1</t>
   </si>
   <si>
-    <t>L452R, E484Q, D614G, P681R</t>
-  </si>
-  <si>
     <t>B.1.620</t>
   </si>
   <si>
     <t>Unclear (b)</t>
   </si>
   <si>
-    <t>S477N, E484K, D614G, P681H</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -574,9 +547,6 @@
     <t>Peru</t>
   </si>
   <si>
-    <t>L452Q, F490S, D614G</t>
-  </si>
-  <si>
     <t>B.1.617.3</t>
   </si>
   <si>
@@ -586,45 +556,18 @@
     <t>Unclear2</t>
   </si>
   <si>
-    <t>V367F, E484K, Q613H</t>
-  </si>
-  <si>
     <t>A.27</t>
   </si>
   <si>
-    <t>L452R, N501Y, A653V, H655Y</t>
-  </si>
-  <si>
     <t>A.28</t>
   </si>
   <si>
-    <t>E484K, N501T, H655Y</t>
-  </si>
-  <si>
     <t>C.16</t>
   </si>
   <si>
-    <t>L452R, D614G</t>
-  </si>
-  <si>
-    <t>P384L, K417N, E484K, N501Y, D614G, A701V</t>
-  </si>
-  <si>
-    <t>K417N, E484K, N501Y, E516Q, D614G, A701V</t>
-  </si>
-  <si>
-    <t>L452R, N501Y, D614G, P681H</t>
-  </si>
-  <si>
-    <t>S494P, N501Y, D614G, P681H</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
-    <t>L452R, D614G, Q677H</t>
-  </si>
-  <si>
     <t>AT.1</t>
   </si>
   <si>
@@ -634,58 +577,28 @@
     <t>USA</t>
   </si>
   <si>
-    <t> E484K, D614G, A701V</t>
-  </si>
-  <si>
-    <t>S477N, D614G</t>
-  </si>
-  <si>
     <t>B.1.1.318</t>
   </si>
   <si>
-    <t>E484K, D614G, P681H</t>
-  </si>
-  <si>
     <t>Zeta</t>
   </si>
   <si>
     <t>P.2</t>
   </si>
   <si>
-    <t>E484K, D614G</t>
-  </si>
-  <si>
     <t>B.1.1.519</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>T478K, D614G</t>
-  </si>
-  <si>
     <t>AV.1</t>
   </si>
   <si>
-    <t>N439K, E484K, D614G, P681H</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>D614G, E484K, H655Y, K417T, N501Y, P681H</t>
-  </si>
-  <si>
-    <t>L452R, T478K, D614G, P681R, K417N</t>
-  </si>
-  <si>
     <t>C.1.2</t>
-  </si>
-  <si>
-    <t>D614G, E484K, H655Y, N501Y, N679K, Y449H</t>
-  </si>
-  <si>
-    <t>L452R, T478K, D614G, P681R, Q613H</t>
   </si>
   <si>
     <t>V367F</t>
@@ -803,28 +716,18 @@
     <t>Mu</t>
   </si>
   <si>
-    <t>L452R, T478K, D614G, P681R, Q677H</t>
-  </si>
-  <si>
     <t>B.1.640</t>
   </si>
   <si>
     <t>The Republic of Congo</t>
   </si>
   <si>
-    <t>Variants under monitoring(VUM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Epsilon</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
-    <t>V483A, D614G, H655Y, G669S</t>
-  </si>
-  <si>
     <t>B.1.526</t>
   </si>
   <si>
@@ -837,371 +740,498 @@
     <t>De-escalated variants</t>
   </si>
   <si>
-    <t>Tegally H, Wilkinson E, Giovanetti M, Iranzadeh A, Fonseca V, Giandhari J, et al. Detection of a SARS-CoV-2 variant of concern in South Africa. Nature. 2021;592(7854):438-43.</t>
-  </si>
-  <si>
-    <t>Cele S, Gazy I, Jackson L, Hwa S-H, Tegally H, Lustig G, et al. Escape of SARS-CoV-2 501Y.V2 from neutralization by convalescent plasma. Nature. 2021.</t>
-  </si>
-  <si>
-    <t>Madhi SA, Baillie V, Cutland CL, Voysey M, Koen AL, Fairlie L, et al. Efficacy of the ChAdOx1 nCoV-19 Covid-19 Vaccine against the B.1.351 Variant. New England Journal of Medicine. 2021.</t>
-  </si>
-  <si>
-    <t>Pearson CA. Estimates of severity and transmissibility of novel South Africa SARS-CoV-2 variant 501Y.V2  [Available from: https://cmmid.github.io/topics/covid19/reports/sa-novel-variant/2021_01_11_Transmissibility_and_severity_of_501Y_V2_in_SA.pdf.</t>
-  </si>
-  <si>
-    <t>Funk T, Pharris A, Spiteri G, Bundle N, Melidou A, Carr M, et al. Characteristics of SARS-CoV-2 variants of concern B.1.1.7, B.1.351 or P.1: data from seven EU/EEA countries, weeks 38/2020 to 10/2021. Eurosurveillance. 2021;26(16):2100348.</t>
-  </si>
-  <si>
-    <t>Faria NR, Mellan TA, Whittaker C, Claro IM, Candido DdS, Mishra S, et al. Genomics and epidemiology of the P.1 SARS-CoV-2 lineage in Manaus, Brazil. Science. 2021.</t>
-  </si>
-  <si>
-    <t>Dejnirattisai W, Zhou D, Supasa P, Liu C, Mentzer AJ, Ginn HM, et al. Antibody evasion by the P.1 strain of SARS-CoV-2. Cell. 2021.</t>
-  </si>
-  <si>
-    <t>Public Health England. SARS-CoV-2 variants of concern and variants under investigation in England Technical briefing 12 2021 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/988619/Variants_of_Concern_VOC_Technical_Briefing_12_England.pdf.</t>
-  </si>
-  <si>
-    <t>Jamie Lopez Bernal NA, Charlotte Gower, Eileen Gallagher, Dr Ruth Simmons, Simon Thelwall, Julia Stowe, Elise Tessier, Natalie Groves, Gavin Dabrera, Richard Myers, Vanessa Saliba, Shamez Ladhani, Coli, Campbell, Gayatri Amirthalingam, Matt Edmunds, Maria Zambon, Kevin Brown, Susan Hopkins, Meera Chand, Mary Ramsay. Effectiveness of COVID-19 vaccines against the B.1.617.2 variant 2021 [Available from: https://khub.net/documents/135939561/430986542/Effectiveness+of+COVID-19+vaccines+against+the+B.1.617.2+variant.pdf/204c11a4-e02e-11f2-db19-b3664107ac42.</t>
-  </si>
-  <si>
-    <t>Sheikh A, McMenamin J, Taylor B, Robertson C. SARS-CoV-2 Delta VOC in Scotland: demographics, risk of hospital admission, and vaccine effectiveness. The Lancet.</t>
-  </si>
-  <si>
-    <t>Stowe J, Andrews N, Gower C, Gallagher E, Utsi L, Simmons R, et al. Effectiveness of COVID-19 vaccines against hospital admission with the Delta (B.1.617.2) variant 2021 [Available from: https://khub.net/documents/135939561/479607266/Effectiveness+of+COVID-19+vaccines+against+hospital+admission+with+the+Delta+%28B.1.617.2%29+variant.pdf/1c213463-3997-ed16-2a6f-14e5deb0b997?t=1623689315431.</t>
-  </si>
-  <si>
-    <t>Public Health England. SARS-CoV-2 variants of concern and variants under investigation in England Technical briefing 16 2021 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/997414/Variants_of_Concern_VOC_Technical_Briefing_16.pdf.</t>
-  </si>
-  <si>
-    <t>Davies NG, Abbott S, Barnard RC, Jarvis CI, Kucharski AJ, Munday JD, et al. Estimated transmissibility and impact of SARS-CoV-2 lineage B.1.1.7 in England. Science. 2021;372.</t>
-  </si>
-  <si>
-    <t>Jangra S, Ye C, Rathnasinghe R, Stadlbauer D, Alshammary H, Amoako AA, et al. SARS-CoV-2 spike E484K mutation reduces antibody neutralisation. The Lancet Microbe.</t>
-  </si>
-  <si>
-    <t>Acevedo ML, Alonso-Palomares L, Bustamante A, Gaggero A, Paredes F, Cortés CP, et al. Infectivity and immune escape of the new SARS-CoV-2 variant of interest Lambda. medRxiv. 2021.</t>
-  </si>
-  <si>
-    <t>Tada T, Zhou H, Dcosta BM, Samanovic MI, Mulligan MJ, Landau NR. SARS-CoV-2 Lambda Variant Remains Susceptible to Neutralization by mRNA Vaccine-elicited Antibodies and Convalescent Serum. bioRxiv. 2021.</t>
-  </si>
-  <si>
-    <t>UK Health Security Agency. SARS-CoV-2 variants of concern and variants under investigation in England (Technical briefing 27)  [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1029715/technical-briefing-27.pdf.</t>
-  </si>
-  <si>
-    <t>Lassauniere R, Polacek C, Fonager J, Bennedbaek M, Boding L, Rasmussen M, et al. Neutralisation of SARS-CoV-2 Delta sub-lineage AY.4.2 and B.1.617.2+E484K by BNT162b2 mRNA vaccine-elicited sera. medRxiv. 2021:2021.11.08.21266075.</t>
-  </si>
-  <si>
-    <t>Deng X, Garcia-Knight MA, Khalid MM, Servellita V, Wang C, Morris MK, et al. Transmission, infectivity, and antibody neutralization of an emerging SARS-CoV-2 variant in California carrying a L452R spike protein mutation. medRxiv. 2021.</t>
-  </si>
-  <si>
-    <t>Haynes WA, Kamath K, Lucas C, Shon J, Iwasaki A. Impact of B.1.1.7 variant mutations on antibody recognition of linear SARS-CoV-2 epitopes. medRxiv. 2021:2021.01.06.20248960.</t>
-  </si>
-  <si>
-    <t>Johnson BA, Xie X, Kalveram B, Lokugamage KG, Muruato A, Zou J, et al. Furin Cleavage Site Is Key to SARS-CoV-2 Pathogenesis. bioRxiv. 2020.</t>
-  </si>
-  <si>
-    <t>Davies NG, Jarvis CI, van Zandvoort K, Clifford S, Sun FY, Funk S, et al. Increased mortality in community-tested cases of SARS-CoV-2 lineage B.1.1.7. Nature. 2021.</t>
-  </si>
-  <si>
-    <t>Collier DA, De Marco A, Ferreira IATM, Meng B, Datir RP, Walls AC, et al. Sensitivity of SARS-CoV-2 B.1.1.7 to mRNA vaccine-elicited antibodies. Nature. 2021.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Santé Publique France. Nouveau variant détecté et sous surveillance en Bretagne 2021 [updated 2021-03-16. Available from: https://www.santepubliquefrance.fr/presse/2021/nouveau-variant-detecte-et-sous-surveillance-en-bretagne.</t>
-  </si>
-  <si>
-    <t>Shu Y, McCauley J. GISAID: Global initiative on sharing all influenza data – from vision to reality. Eurosurveillance. 2017;22(13):30494.</t>
-  </si>
-  <si>
-    <t>Zhao X, Zheng A, Li D, Zhang R, Sun H, Wang Q, et al. Neutralisation of ZF2001-elicited antisera to SARS-CoV-2 variants. Lancet Microbe. 2021.</t>
-  </si>
-  <si>
-    <t>England PH. SARS-CoV-2 variants of concern and variants under investigation in England. Technical briefing 11 2021 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/986380/Variants_of_Concern_VOC_Technical_Briefing_11_England.pdf.</t>
-  </si>
-  <si>
-    <t>Tut G, Lancaster T, Krutikov M, Sylla P, Bone D, Kaur N, et al. Profile of Humoral and Cellular Immune Responses to Single BNT162b2 or ChAdOx1 Vaccine in Residents and Staff Within Residential Care Homes (VIVALDI Study). Preprints with The Lancet2021.</t>
-  </si>
-  <si>
-    <t>Tada T, Zhou H, Dcosta BM, Samanovic MI, Mulligan MJ, Landau NR. The Spike Proteins of SARS-CoV-2 B.1.617 and B.1.618 Variants Identified in India Provide Partial Resistance to Vaccine-elicited and Therapeutic Monoclonal Antibodies. bioRxiv. 2021.</t>
-  </si>
-  <si>
-    <t>Hoffmann M, Hofmann-Winkler H, Krüger N, Kempf A, Nehlmeier I, Graichen L, et al. SARS-CoV-2 variant B.1.617 is resistant to Bamlanivimab and evades antibodies induced by infection and vaccination. bioRxiv. 2021.</t>
-  </si>
-  <si>
-    <t>Yadav PD, Sapkal GN, Abraham P, Ella R, Deshpande G, Patil DY, et al. Neutralization of variant under investigation B.1.617 with sera of BBV152 vaccinees. bioRxiv. 2021.</t>
-  </si>
-  <si>
-    <t>Liu Z, VanBlargan LA, Bloyet L-M, Rothlauf PW, Chen RE, Stumpf S, et al. Identification of SARS-CoV-2 spike mutations that attenuate monoclonal and serum antibody neutralization. Cell Host &amp; Microbe. 2021;29(3):477-88.e4.</t>
-  </si>
-  <si>
-    <t>Greaney AJ, Loes AN, Crawford KHD, Starr TN, Malone KD, Chu HY, et al. Comprehensive mapping of mutations in the SARS-CoV-2 receptor-binding domain that affect recognition by polyclonal human plasma antibodies. Cell Host &amp; Microbe. 2021;29(3):463-76.e6.</t>
-  </si>
-  <si>
-    <t>Increased (v) (1)</t>
-  </si>
-  <si>
-    <t>Increased (v) (2-4)</t>
-  </si>
-  <si>
-    <t>Increased (v) (3, 5)</t>
-  </si>
-  <si>
     <t>BA.1</t>
   </si>
   <si>
-    <t>Increased (v) (6, 7)</t>
-  </si>
-  <si>
-    <t>Increased (v) (8-10)</t>
-  </si>
-  <si>
-    <t>Reduced (v) (11-13)</t>
-  </si>
-  <si>
     <t>BA.2</t>
   </si>
   <si>
-    <t>Increased (v) (6, 14)</t>
-  </si>
-  <si>
-    <t>Increased (v) (8)</t>
-  </si>
-  <si>
-    <t>Reduced (v) (15, 16)</t>
-  </si>
-  <si>
     <t>BA.4</t>
   </si>
   <si>
-    <t>L452R, F486V, R493Q</t>
-  </si>
-  <si>
     <t>No evidence</t>
   </si>
   <si>
-    <t>Increased (17, 18)</t>
-  </si>
-  <si>
     <t>BA.5</t>
   </si>
   <si>
+    <t>Increased (v) (19)</t>
+  </si>
+  <si>
+    <t>Similar</t>
+  </si>
+  <si>
+    <t>Increased (m) (19)</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>B.1.621</t>
+  </si>
+  <si>
+    <t>AY.4.2</t>
+  </si>
+  <si>
+    <t>XF</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>B.1.1.7+E484K</t>
+  </si>
+  <si>
+    <t>A.23.1+E484K</t>
+  </si>
+  <si>
+    <t>B.1.351+P384L</t>
+  </si>
+  <si>
+    <t>B.1.351+E516Q</t>
+  </si>
+  <si>
+    <t>B.1.1.7+L452R</t>
+  </si>
+  <si>
+    <t>B.1.1.7+S494P</t>
+  </si>
+  <si>
+    <t>C.36+L452R</t>
+  </si>
+  <si>
+    <t>P.1+P681H</t>
+  </si>
+  <si>
+    <t>B.1.617.2 + K417N</t>
+  </si>
+  <si>
+    <t>B.1.617.2 + Q613H</t>
+  </si>
+  <si>
+    <t>B.1.617.2 + Q677H</t>
+  </si>
+  <si>
+    <t>Spike mutations of interest</t>
+  </si>
+  <si>
+    <t>Impact on transmissibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impact on immunity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impact on severity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Increased (v) (1, 2)</t>
+  </si>
+  <si>
+    <t>Increased (v) (3-5)</t>
+  </si>
+  <si>
+    <t>Reduced (v) (6-8)</t>
+  </si>
+  <si>
+    <t>Increased (v) (1, 9)</t>
+  </si>
+  <si>
+    <t>Increased (v) (3)</t>
+  </si>
+  <si>
+    <t>Reduced (v) (10, 11)</t>
+  </si>
+  <si>
+    <t>Increased (12, 13)</t>
+  </si>
+  <si>
+    <t>Increased (13)</t>
+  </si>
+  <si>
+    <t>Variants of Interest (VOI)</t>
+  </si>
+  <si>
+    <t>Variants under monitoring</t>
+  </si>
+  <si>
+    <t>Increased (v) (14)</t>
+  </si>
+  <si>
+    <t>Increased (v) (15, 16)</t>
+  </si>
+  <si>
+    <t>Increased (v) (17, 18)</t>
+  </si>
+  <si>
+    <t>Increased (v) (15)</t>
+  </si>
+  <si>
+    <t>Unclear (19)</t>
+  </si>
+  <si>
+    <t>Increased (m) (17, 22)</t>
+  </si>
+  <si>
+    <t>Increased (m) (14)</t>
+  </si>
+  <si>
+    <t>Increased (m) (17)</t>
+  </si>
+  <si>
+    <t>Increased (v) (23)</t>
+  </si>
+  <si>
+    <t>Increased (v) (24-27)</t>
+  </si>
+  <si>
+    <t>Increased (m) (17, 28)</t>
+  </si>
+  <si>
+    <t>Increased (m) (17, 19)</t>
+  </si>
+  <si>
+    <t>Increased (v) (29)</t>
+  </si>
+  <si>
+    <t>Increased (v) (30, 31)</t>
+  </si>
+  <si>
+    <t>Unclear (32)</t>
+  </si>
+  <si>
+    <t>Increased (m) (33)</t>
+  </si>
+  <si>
+    <t>Unclear (34, 35)</t>
+  </si>
+  <si>
+    <t>Increased (v) (36, 37)</t>
+  </si>
+  <si>
+    <t>Increased (v) (38)</t>
+  </si>
+  <si>
+    <t>Similar (v) (38, 39)</t>
+  </si>
+  <si>
+    <t>Similar (v) (38)</t>
+  </si>
+  <si>
+    <t>Increased (v) (16, 32)</t>
+  </si>
+  <si>
+    <t>Increased (v) (7)</t>
+  </si>
+  <si>
+    <t>Increased (v) (40)</t>
+  </si>
+  <si>
+    <t>Increased (v) (16)</t>
+  </si>
+  <si>
+    <t>Increased (v) (41)</t>
+  </si>
+  <si>
+    <t>Increased (v) (42-44)</t>
+  </si>
+  <si>
+    <t>Increased (v) (43, 45)</t>
+  </si>
+  <si>
+    <t>2. Hui KPY, Ho JCW, Cheung M-c, Ng K-c, Ching RHH, Lai K-l, et al. SARS-CoV-2 Omicron variant replication in human bronchus and lung ex vivo. Nature. 2022;603(7902):715-20.</t>
+  </si>
+  <si>
+    <t>4. Rössler A, Knabl L, Laer Dv, Kimpel J. Neutralization profile of Omicron variant convalescent individuals. medRxiv. 2022:2022.02.01.22270263.</t>
+  </si>
+  <si>
+    <t>5. Altarawneh HN, Chemaitelly H, Hasan MR, Ayoub HH, Qassim S, AlMukdad S, et al. Protection against the Omicron Variant from Previous SARS-CoV-2 Infection. N Engl J Med. 2022.</t>
+  </si>
+  <si>
+    <t>7. Faria NR, Mellan TA, Whittaker C, Claro IM, Candido DdS, Mishra S, et al. Genomics and epidemiology of the P.1 SARS-CoV-2 lineage in Manaus, Brazil. Science. 2021.</t>
+  </si>
+  <si>
+    <t>9. Lyngse FP, Kirkeby CT, Denwood M, Christiansen LE, Mølbak K, Møller CH, et al. Transmission of SARS-CoV-2 Omicron VOC subvariants BA.1 and BA.2: Evidence from Danish Households. medRxiv. 2022:2022.01.28.22270044.</t>
+  </si>
+  <si>
+    <t>10. Fonager J, Bennedbæk M, Bager P, Wohlfahrt J, Ellegaard KM, Ingham AC, et al. Molecular epidemiology of the SARS-CoV-2 variant Omicron BA.2 sub-lineage in Denmark, 29 November 2021 to 2 January 2022. Eurosurveillance. 2022;27(10):2200181.</t>
+  </si>
+  <si>
+    <t>12. Khan K, Karim F, Ganga Y, Bernstein M, Jule Z, Reedoy K, et al. Omicron sub-lineages BA.4/BA.5 escape BA.1 infection elicited neutralizing immunity. medRxiv. 2022:2022.04.29.22274477.</t>
+  </si>
+  <si>
+    <t>13. Cao Y, Yisimayi A, Jian F, Song W, Xiao T, Wang L, et al. BA.2.12.1, BA.4 and BA.5 escape antibodies elicited by Omicron infection. bioRxiv. 2022:2022.04.30.489997.</t>
+  </si>
+  <si>
+    <t>14. Davies NG, Abbott S, Barnard RC, Jarvis CI, Kucharski AJ, Munday JD, et al. Estimated transmissibility and impact of SARS-CoV-2 lineage B.1.1.7 in England. Science. 2021;372.</t>
+  </si>
+  <si>
+    <t>15. Davies NG, Jarvis CI, van Zandvoort K, Clifford S, Sun FY, Funk S, et al. Increased mortality in community-tested cases of SARS-CoV-2 lineage B.1.1.7. Nature. 2021.</t>
+  </si>
+  <si>
+    <t>16. Funk T, Pharris A, Spiteri G, Bundle N, Melidou A, Carr M, et al. Characteristics of SARS-CoV-2 variants of concern B.1.1.7, B.1.351 or P.1: data from seven EU/EEA countries, weeks 38/2020 to 10/2021. Eurosurveillance. 2021;26(16):2100348.</t>
+  </si>
+  <si>
+    <t>17. Jangra S, Ye C, Rathnasinghe R, Stadlbauer D, Alshammary H, Amoako AA, et al. SARS-CoV-2 spike E484K mutation reduces antibody neutralisation. The Lancet Microbe.</t>
+  </si>
+  <si>
+    <t>18. Collier DA, De Marco A, Ferreira IATM, Meng B, Datir RP, Walls AC, et al. Sensitivity of SARS-CoV-2 B.1.1.7 to mRNA vaccine-elicited antibodies. Nature. 2021.</t>
+  </si>
+  <si>
+    <t>19. Deng X, Garcia-Knight MA, Khalid MM, Servellita V, Wang C, Morris MK, et al. Transmission, infectivity, and antibody neutralization of an emerging SARS-CoV-2 variant in California carrying a L452R spike protein mutation. medRxiv. 2021.</t>
+  </si>
+  <si>
+    <t>21. Shu Y, McCauley J. GISAID: Global initiative on sharing all influenza data – from vision to reality. Eurosurveillance. 2017;22(13):30494.</t>
+  </si>
+  <si>
+    <t>22. Zhao X, Zheng A, Li D, Zhang R, Sun H, Wang Q, et al. Neutralisation of ZF2001-elicited antisera to SARS-CoV-2 variants. Lancet Microbe. 2021.</t>
+  </si>
+  <si>
+    <t>24. Tut G, Lancaster T, Krutikov M, Sylla P, Bone D, Kaur N, et al. Profile of Humoral and Cellular Immune Responses to Single BNT162b2 or ChAdOx1 Vaccine in Residents and Staff Within Residential Care Homes (VIVALDI Study). Preprints with The Lancet2021.</t>
+  </si>
+  <si>
+    <t>25. Tada T, Zhou H, Dcosta BM, Samanovic MI, Mulligan MJ, Landau NR. The Spike Proteins of SARS-CoV-2 B.1.617 and B.1.618 Variants Identified in India Provide Partial Resistance to Vaccine-elicited and Therapeutic Monoclonal Antibodies. bioRxiv. 2021.</t>
+  </si>
+  <si>
+    <t>26. Hoffmann M, Hofmann-Winkler H, Krüger N, Kempf A, Nehlmeier I, Graichen L, et al. SARS-CoV-2 variant B.1.617 is resistant to Bamlanivimab and evades antibodies induced by infection and vaccination. bioRxiv. 2021.</t>
+  </si>
+  <si>
+    <t>27. Yadav PD, Sapkal GN, Abraham P, Ella R, Deshpande G, Patil DY, et al. Neutralization of variant under investigation B.1.617 with sera of BBV152 vaccinees. bioRxiv. 2021.</t>
+  </si>
+  <si>
+    <t>28. Liu Z, VanBlargan LA, Bloyet L-M, Rothlauf PW, Chen RE, Stumpf S, et al. Identification of SARS-CoV-2 spike mutations that attenuate monoclonal and serum antibody neutralization. Cell Host &amp; Microbe. 2021;29(3):477-88.e4.</t>
+  </si>
+  <si>
+    <t>29. Tegally H, Wilkinson E, Giovanetti M, Iranzadeh A, Fonseca V, Giandhari J, et al. Detection of a SARS-CoV-2 variant of concern in South Africa. Nature. 2021;592(7854):438-43.</t>
+  </si>
+  <si>
+    <t>30. Cele S, Gazy I, Jackson L, Hwa S-H, Tegally H, Lustig G, et al. Escape of SARS-CoV-2 501Y.V2 from neutralization by convalescent plasma. Nature. 2021.</t>
+  </si>
+  <si>
+    <t>31. Madhi SA, Baillie V, Cutland CL, Voysey M, Koen AL, Fairlie L, et al. Efficacy of the ChAdOx1 nCoV-19 Covid-19 Vaccine against the B.1.351 Variant. New England Journal of Medicine. 2021.</t>
+  </si>
+  <si>
+    <t>33. Greaney AJ, Loes AN, Crawford KHD, Starr TN, Malone KD, Chu HY, et al. Comprehensive mapping of mutations in the SARS-CoV-2 receptor-binding domain that affect recognition by polyclonal human plasma antibodies. Cell Host &amp; Microbe. 2021;29(3):463-76.e6.</t>
+  </si>
+  <si>
+    <t>34. Haynes WA, Kamath K, Lucas C, Shon J, Iwasaki A. Impact of B.1.1.7 variant mutations on antibody recognition of linear SARS-CoV-2 epitopes. medRxiv. 2021:2021.01.06.20248960.</t>
+  </si>
+  <si>
+    <t>35. Johnson BA, Xie X, Kalveram B, Lokugamage KG, Muruato A, Zou J, et al. Furin Cleavage Site Is Key to SARS-CoV-2 Pathogenesis. bioRxiv. 2020.</t>
+  </si>
+  <si>
+    <t>36. Acevedo ML, Alonso-Palomares L, Bustamante A, Gaggero A, Paredes F, Cortés CP, et al. Infectivity and immune escape of the new SARS-CoV-2 variant of interest Lambda. medRxiv. 2021.</t>
+  </si>
+  <si>
+    <t>37. Tada T, Zhou H, Dcosta BM, Samanovic MI, Mulligan MJ, Landau NR. SARS-CoV-2 Lambda Variant Remains Susceptible to Neutralization by mRNA Vaccine-elicited Antibodies and Convalescent Serum. bioRxiv. 2021.</t>
+  </si>
+  <si>
+    <t>39. Lassauniere R, Polacek C, Fonager J, Bennedbaek M, Boding L, Rasmussen M, et al. Neutralisation of SARS-CoV-2 Delta sub-lineage AY.4.2 and B.1.617.2+E484K by BNT162b2 mRNA vaccine-elicited sera. medRxiv. 2021:2021.11.08.21266075.</t>
+  </si>
+  <si>
+    <t>40. Dejnirattisai W, Zhou D, Supasa P, Liu C, Mentzer AJ, Ginn HM, et al. Antibody evasion by the P.1 strain of SARS-CoV-2. Cell. 2021.</t>
+  </si>
+  <si>
+    <t>43. Sheikh A, McMenamin J, Taylor B, Robertson C. SARS-CoV-2 Delta VOC in Scotland: demographics, risk of hospital admission, and vaccine effectiveness. The Lancet.</t>
+  </si>
+  <si>
+    <t>1. UK Health Security Agency. SARS-CoV-2 variants of concern and variants under investigation in England. Technical Briefing 35: UKHSA; 2022 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1050999/Technical-Briefing-35-28January2022.pdf.</t>
+  </si>
+  <si>
+    <t>3. UK Health Security Agency. COVID-19 vaccine surveillance report week 6 2022 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1054071/vaccine-surveillance-report-week-6.pdf.</t>
+  </si>
+  <si>
+    <t>6. European Centre for Disease Prevention and Control. Assessment of the further spread and potential impact of the SARS-CoV-2 Omicron variant of concern in the EU/EEA, 19th update 2022 [Available from: https://www.ecdc.europa.eu/sites/default/files/documents/RRA-19-update-27-jan-2022.pdf.</t>
+  </si>
+  <si>
+    <t>8. UK Health Security Agency (UKHSA). SARS-CoV-2 variants of concern and variants under investigation in England. Technical briefing: Update on hospitalisation and vaccine effectiveness for Omicron VOC-21NOV01 (B.1.1.529) UKHSA; 2021 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1045619/Technical-Briefing-31-Dec-2021-Omicron_severity_update.pdf.</t>
+  </si>
+  <si>
+    <t>11. UK Health Security Agency (UKHSA). SARS-CoV-2 variants of concern and variants under investigation in England - Technical briefing 39: UKHSA; 2022 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1063424/Tech-Briefing-39-25March2022_FINAL.pdf.</t>
+  </si>
+  <si>
+    <t>20. Santé Publique France. Nouveau variant détecté et sous surveillance en Bretagne 2021 [updated 2021-03-16. Available from: https://www.santepubliquefrance.fr/presse/2021/nouveau-variant-detecte-et-sous-surveillance-en-bretagne.</t>
+  </si>
+  <si>
+    <t>23. England PH. SARS-CoV-2 variants of concern and variants under investigation in England. Technical briefing 11 2021 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/986380/Variants_of_Concern_VOC_Technical_Briefing_11_England.pdf.</t>
+  </si>
+  <si>
+    <t>32. Pearson CA. Estimates of severity and transmissibility of novel South Africa SARS-CoV-2 variant 501Y.V2  [Available from: https://cmmid.github.io/topics/covid19/reports/sa-novel-variant/2021_01_11_Transmissibility_and_severity_of_501Y_V2_in_SA.pdf.</t>
+  </si>
+  <si>
+    <t>38. UK Health Security Agency. SARS-CoV-2 variants of concern and variants under investigation in England (Technical briefing 27) 2021 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1029715/technical-briefing-27.pdf.</t>
+  </si>
+  <si>
+    <t>41. Public Health England. SARS-CoV-2 variants of concern and variants under investigation in England Technical briefing 12 2021 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/988619/Variants_of_Concern_VOC_Technical_Briefing_12_England.pdf.</t>
+  </si>
+  <si>
+    <t>42. Jamie Lopez Bernal NA, Charlotte Gower, Eileen Gallagher, Dr Ruth Simmons, Simon Thelwall, Julia Stowe, Elise Tessier, Natalie Groves, Gavin Dabrera, Richard Myers, Vanessa Saliba, Shamez Ladhani, Coli, Campbell, Gayatri Amirthalingam, Matt Edmunds, Maria Zambon, Kevin Brown, Susan Hopkins, Meera Chand, Mary Ramsay. Effectiveness of COVID-19 vaccines against the B.1.617.2 variant 2021 [Available from: https://khub.net/documents/135939561/430986542/Effectiveness+of+COVID-19+vaccines+against+the+B.1.617.2+variant.pdf/204c11a4-e02e-11f2-db19-b3664107ac42.</t>
+  </si>
+  <si>
+    <t>44. Stowe J, Andrews N, Gower C, Gallagher E, Utsi L, Simmons R, et al. Effectiveness of COVID-19 vaccines against hospital admission with the Delta (B.1.617.2) variant 2021 [Available from: https://khub.net/documents/135939561/479607266/Effectiveness+of+COVID-19+vaccines+against+hospital+admission+with+the+Delta+%28B.1.617.2%29+variant.pdf/1c213463-3997-ed16-2a6f-14e5deb0b997?t=1623689315431.</t>
+  </si>
+  <si>
+    <t>45. Public Health England. SARS-CoV-2 variants of concern and variants under investigation in England Technical briefing 16 2021 [Available from: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/997414/Variants_of_Concern_VOC_Technical_Briefing_16.pdf</t>
+  </si>
+  <si>
+    <t>B.1.616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.1.427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA.2 + L452X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.1.617.2 + E484X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lineage + additional mutations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BA.3</t>
-  </si>
-  <si>
-    <t>Increased (18)</t>
-  </si>
-  <si>
-    <t>BA.2 + L452X</t>
-  </si>
-  <si>
-    <t>Increased (v) (19)</t>
-  </si>
-  <si>
-    <t>Similar</t>
-  </si>
-  <si>
-    <t>Increased (v) (20, 21)</t>
-  </si>
-  <si>
-    <t>Increased (v) (22, 23)</t>
-  </si>
-  <si>
-    <t>Increased (v) (20)</t>
-  </si>
-  <si>
-    <t>Increased (v) (24)</t>
-  </si>
-  <si>
-    <t>Increased (m) (22, 27)</t>
-  </si>
-  <si>
-    <t>Increased (m) (19)</t>
-  </si>
-  <si>
-    <t>Increased (m) (22)</t>
-  </si>
-  <si>
-    <t>Increased (v) (28)</t>
-  </si>
-  <si>
-    <t>Increased (v) (29-32)</t>
-  </si>
-  <si>
-    <t>Increased (m) (22, 33)</t>
-  </si>
-  <si>
-    <t>Increased (m) (1)</t>
-  </si>
-  <si>
-    <t>Increased (m) (22, 24)</t>
-  </si>
-  <si>
-    <t>Q414K, N450K, ins214TDR, D614G</t>
-  </si>
-  <si>
-    <t>Increased (m) (24)</t>
-  </si>
-  <si>
-    <t>Increased (v) (34)</t>
-  </si>
-  <si>
-    <t>Increased (v) (35, 36)</t>
-  </si>
-  <si>
-    <t>Unclear (37)</t>
-  </si>
-  <si>
-    <t>Increased (m) (38)</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>E484K, D614G, N679K, ins679GIAL</t>
-  </si>
-  <si>
-    <t>Unclear (39, 40)</t>
-  </si>
-  <si>
-    <t>B.1.621</t>
-  </si>
-  <si>
-    <t>R346K, E484K, N501Y, D614G, P681H</t>
-  </si>
-  <si>
-    <t>Increased (v) (41, 42)</t>
-  </si>
-  <si>
-    <t>AY.4.2</t>
-  </si>
-  <si>
-    <t>L452R, T478K, D614G, P681R, A222V, Y145H</t>
-  </si>
-  <si>
-    <t>Increased (v) (43)</t>
-  </si>
-  <si>
-    <t>Similar (v) (43, 44)</t>
-  </si>
-  <si>
-    <t>Similar (v) (43)</t>
-  </si>
-  <si>
-    <t>L452R, T478K, D614G, P681R, E484X (d)</t>
-  </si>
-  <si>
-    <t>Increased (v) (21, 37)</t>
-  </si>
-  <si>
-    <t>Increased (v) (45)</t>
-  </si>
-  <si>
-    <t>Increased (v) (46)</t>
-  </si>
-  <si>
-    <t>Increased (v) (21)</t>
-  </si>
-  <si>
-    <t>D614G, F490R, N394S, N501Y, P681H, R346S, Y449N, 137−145de</t>
-  </si>
-  <si>
-    <t>XF</t>
-  </si>
-  <si>
-    <t>Omicron-like</t>
-  </si>
-  <si>
-    <t>XD</t>
-  </si>
-  <si>
-    <t>NTD Delta-like; remaining Omicron-like</t>
-  </si>
-  <si>
-    <t>B.1.1.7+E484K</t>
-  </si>
-  <si>
-    <t>B.1.427/B.1.429</t>
-  </si>
-  <si>
-    <t>B.1.616(c)</t>
-  </si>
-  <si>
-    <t>A.23.1+E484K</t>
-  </si>
-  <si>
-    <t>B.1.351+P384L</t>
-  </si>
-  <si>
-    <t>B.1.351+E516Q</t>
-  </si>
-  <si>
-    <t>B.1.1.7+L452R</t>
-  </si>
-  <si>
-    <t>B.1.1.7+S494P</t>
-  </si>
-  <si>
-    <t>C.36+L452R</t>
-  </si>
-  <si>
-    <t>P.1+P681H</t>
-  </si>
-  <si>
-    <t>B.1.617.2 + K417N</t>
-  </si>
-  <si>
-    <t>B.1.617.2 + E484X (d)</t>
-  </si>
-  <si>
-    <t>B.1.617.2 + Q613H</t>
-  </si>
-  <si>
-    <t>B.1.617.2 + Q677H</t>
-  </si>
-  <si>
-    <t>Spike mutations of interest</t>
-  </si>
-  <si>
-    <t>A67V, Δ69-70, T95I, G142D, Δ143-145, N211I, Δ212, ins215EPE, G339D, S371L, S373P, S375F, K417N, N440K, G446S, S477N, T478K, E484A, Q493R, G496S, Q498R, N501Y, Y505H, T547K, D614G, H655Y, N679K, P681H, N764K, D796Y, N856K, Q954H, N969K, L981F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G142D, N211I, Δ212, V213G, G339D, S371F, S373P, S375F, T376A, D405N, R408S, K417N, N440K, S477N, T478K, E484A, Q493R, Q498R, N501Y, Y505H, D614G, H655Y, N679K, P681H, N764K, D796Y, Q954H, N969K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A67V, Δ69-70, Δ143-145, N211I, Δ212, G339D, S371F, S373P, S375F, D405N, K417N, N440K, G446S, S477N, T478K, E484A, Q493R, Q498R, N501Y, Y505H, D614G, H655Y, N679K, P681H, D796Y, Q954H, N969K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G142D, N211I, Δ212, V213G, G339D, S371F, S373P, S375F, T376A, D405N, R408S, K417N, N440K, S477N, T478K, E484A, Q493R, Q498R, N501Y, Y505H, D614G, H655Y, N679K, P681H, N764K, D796Y, Q954H, N969K,L452X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impact on transmissibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impact on immunity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impact on severity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No evidence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unclear (24)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detection (c) (25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA.2.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A67V T95I G142D N211I G339D S371L S373P S375F S477N T478K E484A Q493R G496S Q498R N501Y Y505H T547K D614G H655Y N679K P681H N764K D796Y N856K Q954H N969K L981F</t>
+  </si>
+  <si>
+    <t>T19I L24S G142D V213G G339D S371F S373P S375F T376A D405N R408S K417N N440K S477N T478K E484A Q493R Q498R N501Y Y505H D614G H655Y N679K P681H N764K D796Y Q954H N969K</t>
+  </si>
+  <si>
+    <t>T19I L24S G142D V213G G339D S371F S373P S375F T376A D405N R408S K417N N440K L452R S477N T478K E484A F486V Q498R N501Y Y505H D614G H655Y N679K P681H N764K D796Y Q954H N969K</t>
+  </si>
+  <si>
+    <t>D614G H655Y N679K P681H Q954H N969K</t>
+  </si>
+  <si>
+    <t>N501Y A570D D614G P681H T716I S982A D1118H</t>
+  </si>
+  <si>
+    <t>N501Y A570D D614G P681H T716I S982A D1118H E484K</t>
+  </si>
+  <si>
+    <t>S13I W152C L452R D614G</t>
+  </si>
+  <si>
+    <t>H66D G142V D215G V483A D614G H655Y G669S Q949R N1187D</t>
+  </si>
+  <si>
+    <t>Q52R A67V E484K D614G Q677H F888L</t>
+  </si>
+  <si>
+    <t>E484K N501Y D614G P681H E1092K H1101Y V1176F</t>
+  </si>
+  <si>
+    <t>L452R E484Q D614G P681R Q1071H</t>
+  </si>
+  <si>
+    <t>P26S V126A H245Y S477N E484K D614G P681H T1027I D1118H</t>
+  </si>
+  <si>
+    <t>T19R L452R E484Q D614G P681R</t>
+  </si>
+  <si>
+    <t>Q414K N450K D614G T716I</t>
+  </si>
+  <si>
+    <t>F157L V367F Q613H P681R E484K</t>
+  </si>
+  <si>
+    <t>L18F L452R N501Y A653V H655Y D796Y G1219V</t>
+  </si>
+  <si>
+    <t>N501T H655Y</t>
+  </si>
+  <si>
+    <t>L452R D614G</t>
+  </si>
+  <si>
+    <t>D80A D215G K417N E484K N501Y D614G A701V P384L</t>
+  </si>
+  <si>
+    <t>D80A D215G K417N E484K N501Y D614G A701V E516Q</t>
+  </si>
+  <si>
+    <t>N501Y A570D D614G P681H T716I S982A D1118H L452R</t>
+  </si>
+  <si>
+    <t>N501Y A570D D614G P681H T716I S982A D1118H S494P</t>
+  </si>
+  <si>
+    <t>L5F T95I D253G D614G</t>
+  </si>
+  <si>
+    <t>E484K D614G V1176F</t>
+  </si>
+  <si>
+    <t>T478K D614G P681H T732A</t>
+  </si>
+  <si>
+    <t>D80G T95I G142D N439K E484K D614G P681H I1130V D1139H</t>
+  </si>
+  <si>
+    <t>P9L D215G H245P E484K D614G E780K</t>
+  </si>
+  <si>
+    <t>D614G Q677H L452R</t>
+  </si>
+  <si>
+    <t>L18F T20N P26S D138Y R190S K417T E484K N501Y D614G H655Y T1027I V1176F P681H</t>
+  </si>
+  <si>
+    <t>T95I Y145N R346K E484K N501Y D614G P681H D950N</t>
+  </si>
+  <si>
+    <t>G75V T76I R246N L452Q F490S D614G T859N</t>
+  </si>
+  <si>
+    <t>T19R T95I G142D Y145H E156G A222V L452R T478K D614G P681R D950N</t>
+  </si>
+  <si>
+    <t>T95I E484K D614G P681H D796H</t>
+  </si>
+  <si>
+    <t>T19R E156G L452R T478K D614G P681R D950N K417N</t>
+  </si>
+  <si>
+    <t>P9L C136F R190S D215G Y449H E484K N501Y D614G H655Y N679K T716I T859N</t>
+  </si>
+  <si>
+    <t>T19R E156G L452R T478K D614G P681R D950N</t>
+  </si>
+  <si>
+    <t>T19R E156G L452R T478K D614G P681R D950N Q613H</t>
+  </si>
+  <si>
+    <t>T19R E156G L452R T478K D614G P681R D950N Q677H</t>
+  </si>
+  <si>
+    <t>D80A D215G K417N E484K N501Y D614G A701V</t>
+  </si>
+  <si>
+    <t>L18F T20N P26S D138Y R190S K417T E484K N501Y D614G H655Y T1027I V1176F</t>
+  </si>
+  <si>
+    <t>A67V T95I G142D N969K</t>
+  </si>
+  <si>
+    <t>Detection (c) (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1282,7 +1312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1290,7 +1320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1306,12 +1336,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1338,7 +1368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,21 +1384,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1686,10 +1725,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="96.4140625" customWidth="1"/>
-    <col min="3" max="3" width="31.08203125" customWidth="1"/>
+    <col min="2" max="2" width="96.375" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
     <col min="4" max="5" width="48.25" customWidth="1"/>
     <col min="6" max="6" width="62" customWidth="1"/>
     <col min="7" max="7" width="68.75" customWidth="1"/>
@@ -1699,7 +1738,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1711,10 +1750,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1729,7 +1768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42">
+    <row r="2" spans="1:10" ht="42.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1740,10 +1779,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1758,21 +1797,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28">
+    <row r="3" spans="1:10" ht="28.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
@@ -1787,21 +1826,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
@@ -1816,7 +1855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28">
+    <row r="5" spans="1:10" ht="28.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1824,13 +1863,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1845,7 +1884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="70">
+    <row r="6" spans="1:10" ht="71.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1856,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -1885,10 +1924,10 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -1903,7 +1942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="70">
+    <row r="8" spans="1:10" ht="71.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1917,7 +1956,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
@@ -1946,7 +1985,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
@@ -1969,13 +2008,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -2004,7 +2043,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2022,7 +2061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="42">
+    <row r="12" spans="1:10" ht="57">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2036,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>75</v>
@@ -2054,7 +2093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.5">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2065,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -2094,7 +2133,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2123,7 +2162,7 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
@@ -2152,7 +2191,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
         <v>58</v>
@@ -2181,7 +2220,7 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
@@ -2210,7 +2249,7 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
         <v>78</v>
@@ -2228,18 +2267,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="98">
+    <row r="19" spans="1:10" ht="99.75">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>68</v>
@@ -2285,55 +2324,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA604133-E1BA-4234-BC5D-457366753123}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.58203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
         <v>79</v>
       </c>
       <c r="C1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" t="s">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c r="H1" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="I1" t="s">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2341,31 +2380,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="7">
-        <v>44166</v>
-      </c>
-      <c r="G2" t="s">
-        <v>225</v>
+        <v>150</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44501</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2373,31 +2412,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="7">
+        <v>88</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="6">
         <v>44501</v>
       </c>
-      <c r="G3" t="s">
-        <v>229</v>
+      <c r="G3" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2405,159 +2444,157 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F4" s="7">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44562</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44593</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="11">
         <v>44501</v>
       </c>
-      <c r="G4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44562</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="7">
-        <v>44593</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" t="s">
-        <v>239</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F7" s="7">
-        <v>44501</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+      <c r="G7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J8" t="s">
-        <v>184</v>
+      <c r="B8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="11">
+        <v>44682</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2565,31 +2602,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>84</v>
       </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="5">
         <v>44075</v>
       </c>
       <c r="G9" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>245</v>
+        <v>199</v>
+      </c>
+      <c r="H9" t="s">
+        <v>166</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2597,31 +2634,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="7">
+        <v>84</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="5">
         <v>44166</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="H10" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2629,31 +2666,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>286</v>
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="7">
+        <v>119</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="5">
         <v>44075</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>308</v>
+      <c r="G11" t="s">
+        <v>203</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>238</v>
+        <v>165</v>
+      </c>
+      <c r="I11" t="s">
+        <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2661,31 +2698,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>287</v>
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="7">
+        <v>155</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="5">
         <v>44228</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>238</v>
+      <c r="G12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
       </c>
       <c r="J12" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2693,31 +2730,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="7">
+        <v>98</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="5">
         <v>44166</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>238</v>
+      <c r="G13" t="s">
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>250</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>238</v>
+        <v>204</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2725,31 +2762,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="7">
+        <v>101</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="5">
         <v>44197</v>
       </c>
       <c r="G14" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2757,31 +2794,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="7">
+        <v>94</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="5">
         <v>44166</v>
       </c>
       <c r="G15" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
-        <v>254</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>238</v>
+        <v>208</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2789,31 +2826,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="7">
+        <v>105</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="5">
         <v>44228</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>238</v>
+      <c r="G16" t="s">
+        <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>238</v>
+        <v>209</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2821,63 +2858,63 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="5">
+        <v>44228</v>
+      </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="7">
-        <v>44228</v>
-      </c>
-      <c r="G17" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" t="s">
-        <v>257</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="D18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="11">
         <v>44166</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J18" t="s">
-        <v>191</v>
+      <c r="G18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2885,31 +2922,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>288</v>
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="7">
+        <v>84</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="5">
         <v>44166</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>238</v>
+      <c r="G19" t="s">
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2917,31 +2954,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="7">
+        <v>105</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="5">
         <v>44166</v>
       </c>
       <c r="G20" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="H20" t="s">
-        <v>259</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>238</v>
+        <v>167</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2949,31 +2986,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>126</v>
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="7">
+        <v>105</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" s="5">
         <v>44166</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>238</v>
+      <c r="G21" t="s">
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2981,31 +3018,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>128</v>
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="7">
+        <v>105</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="5">
         <v>44105</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>238</v>
+      <c r="G22" t="s">
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3013,31 +3050,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="7">
+        <v>88</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="5">
         <v>44166</v>
       </c>
       <c r="G23" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="H23" t="s">
-        <v>261</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>262</v>
+        <v>212</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3045,31 +3082,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>290</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="7">
+        <v>105</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F24" s="5">
         <v>44197</v>
       </c>
       <c r="G24" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="H24" t="s">
-        <v>261</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>262</v>
+        <v>212</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3077,31 +3114,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="7">
+        <v>84</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" s="5">
         <v>44197</v>
       </c>
       <c r="G25" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="I25" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3109,31 +3146,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="7">
+        <v>84</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="5">
         <v>44197</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="H26" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3141,95 +3178,91 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>188</v>
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="7">
+        <v>119</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" s="5">
         <v>44166</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>238</v>
+      <c r="G27" t="s">
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I27" t="s">
+        <v>163</v>
       </c>
       <c r="J27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="B28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="11">
         <v>44105</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" t="s">
-        <v>259</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
+      <c r="G28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="10" customFormat="1">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="B29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11">
         <v>44166</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J29" t="s">
-        <v>191</v>
+      <c r="G29" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3237,31 +3270,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>144</v>
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="7">
+        <v>91</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F30" s="5">
         <v>44197</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>238</v>
+      <c r="G30" t="s">
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
+        <v>163</v>
       </c>
       <c r="J30" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3269,31 +3302,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>146</v>
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F31" s="7">
+        <v>124</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="5">
         <v>44136</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>238</v>
+      <c r="G31" t="s">
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>238</v>
+        <v>167</v>
+      </c>
+      <c r="I31" t="s">
+        <v>163</v>
       </c>
       <c r="J31" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3301,31 +3334,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>149</v>
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" s="7">
+        <v>84</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="5">
         <v>44256</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>238</v>
+      <c r="G32" t="s">
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I32" t="s">
+        <v>163</v>
       </c>
       <c r="J32" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3333,31 +3366,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>136</v>
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" t="s">
-        <v>265</v>
-      </c>
-      <c r="F33" s="7">
+        <v>168</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F33" s="5">
         <v>44197</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>238</v>
+      <c r="G33" t="s">
+        <v>163</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I33" t="s">
+        <v>163</v>
       </c>
       <c r="J33" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3365,63 +3398,63 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>293</v>
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" s="7">
+        <v>116</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" s="5">
         <v>44166</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>238</v>
+      <c r="G34" t="s">
+        <v>163</v>
       </c>
       <c r="H34" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>238</v>
+        <v>167</v>
+      </c>
+      <c r="I34" t="s">
+        <v>163</v>
       </c>
       <c r="J34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="10" customFormat="1">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="7">
+      <c r="B35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" s="11">
         <v>44228</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J35" t="s">
-        <v>191</v>
+      <c r="G35" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3429,31 +3462,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" t="s">
-        <v>268</v>
-      </c>
-      <c r="F36" s="7">
+        <v>106</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F36" s="5">
         <v>44197</v>
       </c>
       <c r="G36" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>238</v>
+        <v>205</v>
+      </c>
+      <c r="I36" t="s">
+        <v>163</v>
       </c>
       <c r="J36" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3461,31 +3494,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="7">
+        <v>109</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F37" s="5">
         <v>44166</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>238</v>
+      <c r="G37" t="s">
+        <v>163</v>
       </c>
       <c r="H37" t="s">
-        <v>269</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>238</v>
+        <v>216</v>
+      </c>
+      <c r="I37" t="s">
+        <v>163</v>
       </c>
       <c r="J37" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3493,31 +3526,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>270</v>
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" t="s">
-        <v>271</v>
-      </c>
-      <c r="F38" s="7">
+        <v>84</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F38" s="5">
         <v>44348</v>
       </c>
       <c r="G38" t="s">
-        <v>272</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>274</v>
+        <v>217</v>
+      </c>
+      <c r="H38" t="s">
+        <v>218</v>
+      </c>
+      <c r="I38" t="s">
+        <v>219</v>
       </c>
       <c r="J38" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3525,63 +3558,63 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>141</v>
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="7">
+        <v>105</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F39" s="5">
         <v>44197</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>238</v>
+      <c r="G39" t="s">
+        <v>163</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I39" t="s">
+        <v>163</v>
       </c>
       <c r="J39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="10" customFormat="1">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B40" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="C40" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F40" s="11">
         <v>44348</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J40" t="s">
-        <v>191</v>
+      <c r="G40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3589,127 +3622,127 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="7">
+        <v>88</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F41" s="5">
         <v>44348</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="I41" t="s">
+        <v>163</v>
       </c>
       <c r="J41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="10" customFormat="1">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="B42" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="F42" s="7">
+      <c r="D42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F42" s="11">
         <v>44287</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
+      <c r="G42" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="10" customFormat="1">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" s="7">
+      <c r="B43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" s="11">
         <v>44287</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
+      <c r="G43" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="10" customFormat="1">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="B44" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F44" s="11">
         <v>44287</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J44" t="s">
-        <v>191</v>
+      <c r="G44" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3717,31 +3750,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="7">
+        <v>88</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F45" s="5">
         <v>44075</v>
       </c>
       <c r="G45" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="I45" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="J45" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3749,127 +3782,155 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="5">
+        <v>44166</v>
+      </c>
+      <c r="G46" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" t="s">
+        <v>222</v>
+      </c>
+      <c r="I46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="10" customFormat="1">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="11">
+        <v>44440</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="10" customFormat="1">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F48" s="11">
+        <v>44562</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="10" customFormat="1">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="11">
+        <v>44562</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
         <v>93</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D50" t="s">
         <v>94</v>
       </c>
-      <c r="D46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="E50" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F50" s="5">
         <v>44166</v>
       </c>
-      <c r="G46" t="s">
-        <v>277</v>
-      </c>
-      <c r="H46" t="s">
-        <v>278</v>
-      </c>
-      <c r="I46" t="s">
-        <v>279</v>
-      </c>
-      <c r="J46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" t="s">
-        <v>280</v>
-      </c>
-      <c r="F47" s="7">
-        <v>44440</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" t="s">
-        <v>282</v>
-      </c>
-      <c r="F48" s="7">
-        <v>44562</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D49" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" t="s">
-        <v>284</v>
-      </c>
-      <c r="F49" s="7">
-        <v>44562</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J49" t="s">
-        <v>191</v>
+      <c r="G50" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" t="s">
+        <v>225</v>
+      </c>
+      <c r="I50" t="s">
+        <v>226</v>
+      </c>
+      <c r="J50" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3881,276 +3942,237 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680C5AEE-85E2-49F2-9EE1-7C5909EE060D}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>224</v>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
